--- a/biology/Biochimie/Acide_paracoumarique/Acide_paracoumarique.xlsx
+++ b/biology/Biochimie/Acide_paracoumarique/Acide_paracoumarique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide paracoumarique ou  acide parahydroxycinnamique est un composé phytochimique dérivé de l'acide cinnamique de formule brute C9H8O3. C'est l'isomère para de l'acide coumarique et le plus abondant des trois isomères dans la nature. Il est ainsi, par abus de langage, souvent appelé simplement acide coumarique.
@@ -512,7 +524,9 @@
           <t>Occurrence naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide paracoumarique se trouve dans une grande variété de plantes comestibles, comme les cacahuètes, les tomates, les carottes et l'ail.
 </t>
@@ -543,7 +557,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide paracoumarique est biosynthétisé à partir de l'acide cinnamique par l'action de l'enzyme cinnamate 4-hydroxylase (C4H), selon la voie des phénylpropanoïdes.
             →
@@ -580,7 +596,9 @@
           <t>Précurseur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Élément-clé de la voie des phénylpropanoïdes, il est le précurseur de nombreux composés des différentes familles de phénylpropanoïdes :
 deux fois réduit, il donne l'alcool paracoumarique qui, avec l'alcool sinapylique et l'alcool coniférylique, est l'un des principaux constituants de la lignocellulose ;
@@ -614,9 +632,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide paracoumarique a des propriétés antioxydantes et pourrait avoir un rôle dans la réduction de risque de cancer de l'estomac[3] en réduisant la formation des nitrosamines, cancérogènes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide paracoumarique a des propriétés antioxydantes et pourrait avoir un rôle dans la réduction de risque de cancer de l'estomac en réduisant la formation des nitrosamines, cancérogènes.
 </t>
         </is>
       </c>
